--- a/data/income_statement/2digits/size/90_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/90_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>90-Creative, arts and entertainment activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>90-Creative, arts and entertainment activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>77629.74386</v>
+        <v>60791.83891</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>194203.23333</v>
+        <v>179288.25663</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>197763.65747</v>
+        <v>195857.87493</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>223674.28699</v>
+        <v>214241.71008</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>189566.57894</v>
+        <v>175193.35911</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>309551.15511</v>
+        <v>268431.1632</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>370395.6417</v>
+        <v>347250.84083</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>413909.38961</v>
+        <v>377637.44598</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>524512.1578</v>
+        <v>507999.76303</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>502544.44222</v>
+        <v>454672.86882</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>621505.33198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>549473.69687</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>56247.316</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>58922.51998</v>
+        <v>42699.95218</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>166657.23773</v>
+        <v>152043.92898</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>188003.76611</v>
+        <v>187441.86092</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>208792.15997</v>
+        <v>201463.30597</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>175577.06846</v>
+        <v>164961.90351</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>287762.23709</v>
+        <v>249542.67772</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>359015.94883</v>
+        <v>337435.30377</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>403186.86446</v>
+        <v>368910.80201</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>501075.03145</v>
+        <v>487852.50499</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>445121.50402</v>
+        <v>407374.13962</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>576628.42352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>509496.14358</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>52672.106</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3432.50762</v>
+        <v>2850.86762</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6190.247719999999</v>
+        <v>5913.02995</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>4095.61588</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6239.42134</v>
+        <v>5332.25638</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8311.711440000001</v>
+        <v>6020.382019999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>8941.26204</v>
+        <v>7993.566440000001</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>5989.787530000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4534.756969999999</v>
+        <v>4470.06099</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>17437.45013</v>
+        <v>14416.28633</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>37719.51198</v>
+        <v>27696.36932</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>26168.57358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>21283.11411</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1468.01</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>15274.71626</v>
+        <v>15241.01911</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>21355.74788</v>
+        <v>21331.2977</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>5664.27548</v>
+        <v>4320.39813</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>8642.705679999999</v>
+        <v>7446.147730000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>5677.79904</v>
+        <v>4211.07358</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>12847.65598</v>
+        <v>10894.91904</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>5389.90534</v>
+        <v>3825.74953</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>6187.76818</v>
+        <v>4256.58298</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>5999.676219999999</v>
+        <v>5730.97171</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>19703.42622</v>
+        <v>19602.35988</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>18708.33488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>18694.43918</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2107.2</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>687.9364300000001</v>
+        <v>441.66588</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1076.3628</v>
+        <v>1072.58738</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>2200.55817</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>764.1624300000001</v>
+        <v>749.3666800000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2985.99607</v>
+        <v>2930.99607</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2318.72414</v>
+        <v>2219.37674</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1987.53814</v>
+        <v>1877.59143</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3951.38546</v>
+        <v>2620.79907</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>7735.959339999999</v>
+        <v>7561.95682</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5320.70208</v>
+        <v>1449.01836</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2353.43901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2340.45754</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>353.681</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>657.10496</v>
+        <v>410.83441</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>567.31457</v>
+        <v>563.5391500000001</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>1922.11611</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>630.6667</v>
+        <v>621.6361999999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2727.29395</v>
+        <v>2672.29395</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1766.86533</v>
+        <v>1667.51793</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1827.31524</v>
+        <v>1719.43473</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3748.76588</v>
+        <v>2418.17949</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>7582.209339999999</v>
+        <v>7408.20682</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5060.30757</v>
+        <v>1224.56286</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2348.06105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2302.06105</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>353.681</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1.6</v>
@@ -1202,7 +1138,7 @@
         <v>478.91</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>80.38261</v>
+        <v>78.31641</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>39.03363</v>
@@ -1211,16 +1147,21 @@
         <v>1.75</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>40.25866000000001</v>
+        <v>4.319649999999999</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>5.37796</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>29.23147</v>
@@ -1232,7 +1173,7 @@
         <v>39.51951</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>129.75925</v>
+        <v>123.994</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>86.70912</v>
@@ -1253,94 +1194,109 @@
         <v>220.13585</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>33.01853</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>76941.80743</v>
+        <v>60350.17303</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>193126.87053</v>
+        <v>178215.66925</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>195563.0993</v>
+        <v>193657.31676</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>222910.12456</v>
+        <v>213492.3434</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>186580.58287</v>
+        <v>172262.36304</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>307232.43097</v>
+        <v>266211.78646</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>368408.10356</v>
+        <v>345373.2494</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>409958.00415</v>
+        <v>375016.64691</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>516776.19846</v>
+        <v>500437.80621</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>497223.74014</v>
+        <v>453223.85046</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>619151.89297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>547133.23933</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>55893.635</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>52551.1533</v>
+        <v>39924.80821</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>134469.84277</v>
+        <v>126811.81294</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>149834.8774</v>
+        <v>148186.2654</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>164010.77911</v>
+        <v>158043.02416</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>148248.85479</v>
+        <v>141930.88688</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>267106.34529</v>
+        <v>239098.91301</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>294563.61986</v>
+        <v>283935.91538</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>352734.73644</v>
+        <v>330358.42868</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>442087.00514</v>
+        <v>404495.49107</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>402903.6051</v>
+        <v>383567.03295</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>526999.19995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>459647.98451</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>48000.83</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1006.2743</v>
+        <v>0</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>1180.12296</v>
@@ -1352,7 +1308,7 @@
         <v>98.81160000000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>16.964</v>
+        <v>0</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>0</v>
@@ -1361,10 +1317,10 @@
         <v>2082.10869</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2844.37985</v>
+        <v>2841.33991</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2029.86412</v>
+        <v>649.14255</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>1473.72372</v>
@@ -1372,89 +1328,104 @@
       <c r="M15" s="48" t="n">
         <v>2955.25076</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>6869.43705</v>
+        <v>5149.67705</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3587.91377</v>
+        <v>1324.85768</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>17410.19361</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>10989.3244</v>
+        <v>10527.32051</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>20560.06946</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>40665.62543</v>
+        <v>40468.14167</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>27167.98069</v>
+        <v>27016.82058</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>109634.82993</v>
+        <v>102412.12733</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>147480.02417</v>
+        <v>133770.40021</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5941.60617</v>
+        <v>1071.04992</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>53056.53771</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>8142.853190000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1872.588</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>44675.44195</v>
+        <v>34775.13116</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>129660.82799</v>
+        <v>124265.85425</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>131044.53769</v>
+        <v>129395.92569</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>152922.64311</v>
+        <v>147416.89205</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>127671.82133</v>
+        <v>121370.81742</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>226440.71986</v>
+        <v>198630.77134</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>264973.04651</v>
+        <v>254496.50214</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>240214.32217</v>
+        <v>225063.75695</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>292577.11685</v>
+        <v>270075.94831</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>395488.27521</v>
+        <v>381022.25931</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>470987.41148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>448549.88056</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>46128.242</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>24390.65413</v>
+        <v>20425.36482</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>58657.02776</v>
+        <v>51403.85631</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>45728.2219</v>
+        <v>45471.05136</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>58899.34545</v>
+        <v>55449.31924</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>38331.72808</v>
+        <v>30331.47616</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>40126.08568</v>
+        <v>27112.87345</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>73844.4837</v>
+        <v>61437.33402</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>57223.26771</v>
+        <v>44658.21823</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>74689.19331999999</v>
+        <v>95942.31514000001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>94320.13504000001</v>
+        <v>69656.81751000001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>92152.69301999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>87485.25481999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7892.805</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>18565.55056</v>
+        <v>13591.7675</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>45585.10555</v>
+        <v>41893.50931</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>43652.54213</v>
+        <v>43157.30316</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>42090.95102</v>
+        <v>40021.31414</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>32576.23753</v>
+        <v>21413.6784</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>57218.21631</v>
+        <v>46358.0175</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>63444.79784000001</v>
+        <v>56869.47639</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>75377.48133</v>
+        <v>60609.71775</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>67354.33121999999</v>
+        <v>60506.99206</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>70581.1351</v>
+        <v>61523.61344</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>91249.50524</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>92573.08671999999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>33132.052</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>6453.53579</v>
+        <v>6166.06509</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>17565.50802</v>
+        <v>16318.36332</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>19287.67328</v>
+        <v>19218.31265</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>13108.88875</v>
+        <v>13033.09704</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>3604.45033</v>
+        <v>951.5068100000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>19440.84402</v>
+        <v>17270.19286</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>7133.78312</v>
+        <v>8244.159450000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6022.476549999999</v>
+        <v>5546.92316</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>6990.30091</v>
+        <v>6723.96779</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>27177.43648</v>
+        <v>21835.61304</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>15482.81778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15347.40224</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>399.028</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>12112.01477</v>
+        <v>7425.70241</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>28019.59753</v>
+        <v>25575.14599</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>24364.86885</v>
+        <v>23938.99051</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>28982.06227</v>
+        <v>26988.2171</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>28971.7872</v>
+        <v>20462.17159</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>37777.37229</v>
+        <v>29087.82464</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>56311.01472</v>
+        <v>48625.31694</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>69355.00478</v>
+        <v>55062.79459</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>60364.03031</v>
+        <v>53783.02427</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>43403.69862</v>
+        <v>39688.0004</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>75766.68745999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>77225.68448000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>32733.024</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>5825.10357</v>
+        <v>6833.59732</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>13071.92221</v>
+        <v>9510.347</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2075.67977</v>
+        <v>2313.7482</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>16808.39443</v>
+        <v>15428.0051</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5755.49055</v>
+        <v>8917.797759999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-17092.13063</v>
+        <v>-19245.14405</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>10399.68586</v>
+        <v>4567.85763</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-18154.21362</v>
+        <v>-15951.49952</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>7334.862099999999</v>
+        <v>35435.32307999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>23738.99994</v>
+        <v>8133.204070000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>903.18778</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-5087.8319</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-25239.247</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3392.61949</v>
+        <v>612.22907</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3262.75575</v>
+        <v>2689.36205</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3841.91473</v>
+        <v>3198.96501</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2503.2287</v>
+        <v>1703.65717</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2766.42753</v>
+        <v>1221.67466</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4358.47383</v>
+        <v>3265.51203</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>8624.13788</v>
+        <v>12588.40365</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>27127.93687</v>
+        <v>25585.40241</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>9528.779779999999</v>
+        <v>13443.13966</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>46847.39198</v>
+        <v>12053.85287</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>12884.54297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4607.596</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2299.991</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1793,7 +1804,7 @@
         <v>52.54166</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>845.47212</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,14 +1812,19 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>252.74715</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>142.5458</v>
@@ -1826,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1005.3788</v>
+        <v>205.99436</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1092.87658</v>
+        <v>641.30129</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>742.45181</v>
+        <v>317.33809</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>879.4381999999999</v>
+        <v>545.23874</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>946.2614</v>
+        <v>360.72452</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>572.11223</v>
+        <v>306.22569</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>835.7729899999999</v>
+        <v>981.84875</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1083.40047</v>
+        <v>915.23457</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1562.06113</v>
+        <v>1879.10694</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3399.67587</v>
+        <v>1973.50077</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3399.17901</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1070.17766</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>434.573</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1904,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>11.52627</v>
@@ -1916,13 +1942,18 @@
         <v>0</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.0001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,89 +1988,104 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>21.67806</v>
+        <v>21.34547</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2.39374</v>
+        <v>2.38316</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>221.11302</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>104.3218</v>
+        <v>4.517810000000001</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>9.44247</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>144.06353</v>
+        <v>144.06232</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>109.75983</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>183.11915</v>
+        <v>183.06102</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>286.98724</v>
+        <v>121.75995</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3.05106</v>
+        <v>0</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1487.29962</v>
+        <v>243.1662</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1258.42055</v>
+        <v>1164.44492</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1573.05069</v>
+        <v>1355.21469</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>692.64684</v>
+        <v>327.07876</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1537.04994</v>
+        <v>577.83395</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3292.01527</v>
+        <v>2464.94122</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6219.06505</v>
+        <v>10109.89165</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>7009.35821</v>
+        <v>5787.057839999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4392.27199</v>
+        <v>9118.30128</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>41253.92404999999</v>
+        <v>7898.60238</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>8886.403789999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2278.97679</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1474.655</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>625.51586</v>
+        <v>141.72304</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>766.46908</v>
+        <v>738.63688</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>1181.96172</v>
@@ -2138,82 +2194,92 @@
         <v>350.2828</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1340.96997</v>
+        <v>1285.23338</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>18728.75951</v>
+        <v>18576.74945</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2398.9873</v>
+        <v>2280.97149</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2190.741</v>
+        <v>2181.74972</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>598.9601700000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1258.44145</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>390.763</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2441.86697</v>
+        <v>572.50374</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2141.01936</v>
+        <v>1951.63688</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2406.33415</v>
+        <v>2073.72268</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1466.78945</v>
+        <v>1031.43245</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>703.89575</v>
+        <v>585.42511</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5478.664860000001</v>
+        <v>5249.68382</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9422.405339999999</v>
+        <v>9765.39986</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>8856.226480000001</v>
+        <v>8937.971960000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3230.13942</v>
+        <v>3861.74409</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>26127.74352</v>
+        <v>7664.55238</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6107.948719999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2398.97741</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>862.931</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>241.98043</v>
+        <v>235.47042</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>156.10946</v>
+        <v>53.8715</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>143.85958</v>
+        <v>68.18692</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>90.43996000000001</v>
+        <v>31.8772</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>14.3899</v>
+        <v>1.63233</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>5.40327</v>
+        <v>0</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>31.04967</v>
@@ -2222,19 +2288,24 @@
         <v>211.92534</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>16.52673</v>
+        <v>114.88061</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>235.34127</v>
+        <v>0</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>245.28047</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>106.72394</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2255,10 +2326,10 @@
         <v>309.8869</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>421.30096</v>
+        <v>498.1671</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>47.68958</v>
+        <v>17.71209</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1.9</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>803.66562</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>461.392</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1943.91157</v>
+        <v>312.28758</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1599.10126</v>
+        <v>1530.41393</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1785.55424</v>
+        <v>1528.61543</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>831.81236</v>
+        <v>532.2188599999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>416.40548</v>
+        <v>310.69241</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>5042.8546</v>
+        <v>4819.27683</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8482.135039999999</v>
+        <v>8942.18405</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>8111.10722</v>
+        <v>8222.826709999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3138.99011</v>
+        <v>3687.53034</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>25453.42506</v>
+        <v>7271.704110000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5058.99105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1488.57627</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>400.873</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,23 +2516,28 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>255.97497</v>
+        <v>24.74574</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>368.68921</v>
+        <v>350.23202</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>89.3763</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>388.81528</v>
+        <v>311.61454</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>150.38724</v>
@@ -2450,106 +2546,121 @@
         <v>46.06264</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>375.48105</v>
+        <v>181.56042</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>485.50434</v>
+        <v>485.50782</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>72.59605000000001</v>
+        <v>57.30661</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>438.97719</v>
+        <v>392.84827</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>0.01158</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>0.666</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3399.84007</v>
+        <v>1643.5372</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2155.69884</v>
+        <v>1845.5233</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2809.74431</v>
+        <v>2740.38368</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3690.10574</v>
+        <v>3553.0859</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3175.86234</v>
+        <v>2815.73054</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6479.724389999999</v>
+        <v>4729.07722</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>9746.05399</v>
+        <v>15832.60979</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>11453.89108</v>
+        <v>16130.01727</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9446.186380000001</v>
+        <v>6857.08403</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>25867.07908</v>
+        <v>7058.95678</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>23937.03222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>11759.50558</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2181.892</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2825.47856</v>
+        <v>1643.5372</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1777.02299</v>
+        <v>1466.84745</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2291.2394</v>
+        <v>2221.87877</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>3621.58009</v>
+        <v>3484.56025</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3135.06059</v>
+        <v>2774.92879</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6479.724389999999</v>
+        <v>4729.07722</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9361.69133</v>
+        <v>15448.24713</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>11073.98724</v>
+        <v>15750.11343</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>9222.23732</v>
+        <v>6857.08403</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>25867.07908</v>
+        <v>7058.95678</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>23670.16952</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>11492.64288</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2116.279</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>574.36151</v>
+        <v>0</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>378.67585</v>
@@ -2573,7 +2684,7 @@
         <v>379.90384</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>223.94906</v>
+        <v>0</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>0</v>
@@ -2581,92 +2692,107 @@
       <c r="M46" s="48" t="n">
         <v>266.8627</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>65.613</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3376.01602</v>
+        <v>5229.78545</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>12037.95976</v>
+        <v>8402.548869999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>701.5160400000001</v>
+        <v>698.60685</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>14154.72794</v>
+        <v>12547.14392</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4642.15999</v>
+        <v>6738.316769999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-24692.04605</v>
+        <v>-25958.39306</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-144.63559</v>
+        <v>-8441.748369999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-11336.39431</v>
+        <v>-15434.08634</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4187.316080000001</v>
+        <v>38159.63462</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>18591.56932</v>
+        <v>5463.54778</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-16257.25019</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-14638.71889</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-25984.079</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1364.10245</v>
+        <v>1113.30758</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1183.74729</v>
+        <v>1176.67436</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1577.09123</v>
+        <v>1577.09121</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1959.45127</v>
+        <v>1919.30204</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1162.14901</v>
+        <v>1094.27741</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2579.01422</v>
+        <v>1856.19527</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2841.49292</v>
+        <v>2750.61484</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3501.54695</v>
+        <v>2809.24449</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>6719.07896</v>
+        <v>6491.169889999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3914.27648</v>
+        <v>3649.49342</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>5505.60825</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>5221.84629</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3393.343</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>13.77184</v>
+        <v>0</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0</v>
@@ -2698,95 +2824,110 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1350.33061</v>
+        <v>1113.30758</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1183.74729</v>
+        <v>1176.67436</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1576.47578</v>
+        <v>1576.47576</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1959.45127</v>
+        <v>1919.30204</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1162.14901</v>
+        <v>1094.27741</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2545.61717</v>
+        <v>1822.79822</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2830.94531</v>
+        <v>2740.06723</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3486.75295</v>
+        <v>2794.45049</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6717.838769999999</v>
+        <v>6489.929700000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3914.27648</v>
+        <v>3649.49342</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>5505.60825</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>5221.84629</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3393.343</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2224.6572</v>
+        <v>1311.883</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1583.92141</v>
+        <v>1094.6617</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>4767.95497</v>
+        <v>4767.95496</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3650.82717</v>
+        <v>3429.77402</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2998.8878</v>
+        <v>2874.09166</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4496.53476</v>
+        <v>4300.90245</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6816.38075</v>
+        <v>2131.81785</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>13258.19796</v>
+        <v>5832.43004</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6503.29467</v>
+        <v>5274.61499</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>12331.78651</v>
+        <v>10683.06755</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3462.62656</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1837.00081</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5585.671</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>297.50423</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>216.91387</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>0</v>
@@ -2807,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1075.02644</v>
+        <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>0</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2470.249</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>426.04552</v>
+        <v>0.944</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>51.5132</v>
@@ -2840,178 +2986,201 @@
         <v>96.12802000000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>121.35541</v>
+        <v>133.91851</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4.26138</v>
+        <v>20.05385</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1321.49719</v>
+        <v>1313.08704</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>53.96975</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>183.41691</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>194.70143</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>531.011</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1501.10745</v>
+        <v>1310.939</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1315.49434</v>
+        <v>1043.1485</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>4610.04554</v>
+        <v>4610.04553</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3320.26564</v>
+        <v>3099.21249</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2549.86168</v>
+        <v>2425.06554</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4400.40674</v>
+        <v>4204.774429999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6592.25453</v>
+        <v>1895.12853</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>13253.93658</v>
+        <v>5812.376190000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4106.77104</v>
+        <v>3961.52795</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>12277.81676</v>
+        <v>10629.0978</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3279.20965</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1642.29938</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2584.411</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2515.46127</v>
+        <v>5031.21003</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>11637.78564</v>
+        <v>8484.561529999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2489.3477</v>
+        <v>-2492.2569</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>12463.35204</v>
+        <v>11036.67194</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2805.4212</v>
+        <v>4958.50252</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-26609.56659</v>
+        <v>-28403.10024</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-4119.52342</v>
+        <v>-7822.95138</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-21093.04532</v>
+        <v>-18457.27189</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>4403.10037</v>
+        <v>39376.18952</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>10174.05929</v>
+        <v>-1570.02635</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-14214.2685</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-11253.87341</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-28176.407</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1195.41729</v>
+        <v>987.17274</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1548.24123</v>
+        <v>937.0465899999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2459.41894</v>
+        <v>2413.18075</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2214.3477</v>
+        <v>2040.9383</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2651.3076</v>
+        <v>2474.12569</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1544.87227</v>
+        <v>1153.49119</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2427.64719</v>
+        <v>2049.90958</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3524.24202</v>
+        <v>3314.2851</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3964.80229</v>
+        <v>3399.74265</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2541.96501</v>
+        <v>2510.57589</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3143.74814</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3263.32558</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1320.04398</v>
+        <v>4044.03729</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>10089.54441</v>
+        <v>7547.51494</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-4948.76664</v>
+        <v>-4905.437650000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>10249.00434</v>
+        <v>8995.73364</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>154.1136</v>
+        <v>2484.37683</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-28154.43886</v>
+        <v>-29556.59143</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-6547.17061</v>
+        <v>-9872.860960000002</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-24617.28734</v>
+        <v>-21771.55699</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>438.29808</v>
+        <v>35976.44687</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>7632.09428</v>
+        <v>-4080.60224</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-17358.01664</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-14517.19899</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-28176.407</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>17</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>